--- a/sir_od_matrix/data_ang/od_matrix_working.xlsx
+++ b/sir_od_matrix/data_ang/od_matrix_working.xlsx
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2902</v>
+        <v>5033</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>29378</v>
+        <v>42870</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5525</v>
+        <v>9109</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2539</v>
+        <v>3810</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5895</v>
+        <v>9758</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>30038</v>
+        <v>43969</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10354</v>
+        <v>17408</v>
       </c>
       <c r="I8">
         <v>80</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>9139</v>
+        <v>15910</v>
       </c>
       <c r="J9">
         <v>100</v>
@@ -2314,7 +2314,7 @@
         <v>100</v>
       </c>
       <c r="J10">
-        <v>6839</v>
+        <v>11215</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3680</v>
+        <v>6167</v>
       </c>
       <c r="L11">
         <v>60</v>
@@ -2702,7 +2702,7 @@
         <v>20</v>
       </c>
       <c r="L12">
-        <v>13527</v>
+        <v>19468</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>11347</v>
+        <v>18114</v>
       </c>
       <c r="N13">
         <v>220</v>
@@ -3090,7 +3090,7 @@
         <v>100</v>
       </c>
       <c r="N14">
-        <v>83582</v>
+        <v>123413</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>120</v>
       </c>
       <c r="O15">
-        <v>7387</v>
+        <v>11473</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>11404</v>
+        <v>16711</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>20</v>
       </c>
       <c r="Q17">
-        <v>12076</v>
+        <v>19046</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>7550</v>
+        <v>13125</v>
       </c>
       <c r="S18">
         <v>100</v>
@@ -4060,7 +4060,7 @@
         <v>100</v>
       </c>
       <c r="S19">
-        <v>8710</v>
+        <v>14181</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>5513</v>
+        <v>9461</v>
       </c>
       <c r="U20">
         <v>1440</v>
@@ -4448,7 +4448,7 @@
         <v>460</v>
       </c>
       <c r="U21">
-        <v>115184</v>
+        <v>160999</v>
       </c>
       <c r="V21">
         <v>100</v>
@@ -4642,7 +4642,7 @@
         <v>280</v>
       </c>
       <c r="V22">
-        <v>15061</v>
+        <v>24970</v>
       </c>
       <c r="W22">
         <v>160</v>
@@ -4836,7 +4836,7 @@
         <v>120</v>
       </c>
       <c r="W23">
-        <v>7403</v>
+        <v>12093</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="X24">
-        <v>11299</v>
+        <v>19875</v>
       </c>
       <c r="Y24">
         <v>100</v>
@@ -5224,7 +5224,7 @@
         <v>200</v>
       </c>
       <c r="Y25">
-        <v>10858</v>
+        <v>17581</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>7519</v>
+        <v>13330</v>
       </c>
       <c r="AA26">
         <v>140</v>
@@ -5612,7 +5612,7 @@
         <v>200</v>
       </c>
       <c r="AA27">
-        <v>5913</v>
+        <v>11306</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>5278</v>
+        <v>7898</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>4381</v>
+        <v>7291</v>
       </c>
       <c r="AD29">
         <v>0</v>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>9680</v>
+        <v>15755</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>5021</v>
+        <v>8269</v>
       </c>
       <c r="AF31">
         <v>240</v>
@@ -6582,7 +6582,7 @@
         <v>200</v>
       </c>
       <c r="AF32">
-        <v>36577</v>
+        <v>57838</v>
       </c>
       <c r="AG32">
         <v>0</v>
@@ -6776,7 +6776,7 @@
         <v>80</v>
       </c>
       <c r="AG33">
-        <v>15842</v>
+        <v>25406</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -6970,7 +6970,7 @@
         <v>20</v>
       </c>
       <c r="AH34">
-        <v>4113</v>
+        <v>7413</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -7164,7 +7164,7 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>7149</v>
+        <v>11973</v>
       </c>
       <c r="AJ35">
         <v>0</v>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>5111</v>
+        <v>8548</v>
       </c>
       <c r="AK36">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="AK37">
-        <v>6616</v>
+        <v>11487</v>
       </c>
       <c r="AL37">
         <v>0</v>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="AL38">
-        <v>42586</v>
+        <v>60476</v>
       </c>
       <c r="AM38">
         <v>15</v>
@@ -7940,7 +7940,7 @@
         <v>55</v>
       </c>
       <c r="AM39">
-        <v>3704</v>
+        <v>5966</v>
       </c>
       <c r="AN39">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="AN40">
-        <v>15140</v>
+        <v>23004</v>
       </c>
       <c r="AO40">
         <v>0</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AO41">
-        <v>12344</v>
+        <v>17271</v>
       </c>
       <c r="AP41">
         <v>0</v>
@@ -8522,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>5668</v>
+        <v>9617</v>
       </c>
       <c r="AQ42">
         <v>180</v>
@@ -8716,7 +8716,7 @@
         <v>140</v>
       </c>
       <c r="AQ43">
-        <v>7619</v>
+        <v>13177</v>
       </c>
       <c r="AR43">
         <v>100</v>
@@ -8910,7 +8910,7 @@
         <v>40</v>
       </c>
       <c r="AR44">
-        <v>19160</v>
+        <v>30959</v>
       </c>
       <c r="AS44">
         <v>60</v>
@@ -9104,7 +9104,7 @@
         <v>120</v>
       </c>
       <c r="AS45">
-        <v>41425</v>
+        <v>61219</v>
       </c>
       <c r="AT45">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>0</v>
       </c>
       <c r="AT46">
-        <v>3489</v>
+        <v>6360</v>
       </c>
       <c r="AU46">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="AU47">
-        <v>31707</v>
+        <v>47886</v>
       </c>
       <c r="AV47">
         <v>440</v>
@@ -9686,7 +9686,7 @@
         <v>1540</v>
       </c>
       <c r="AV48">
-        <v>7526</v>
+        <v>11563</v>
       </c>
       <c r="AW48">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="AW49">
-        <v>91612</v>
+        <v>124178</v>
       </c>
       <c r="AX49">
         <v>0</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="AX50">
-        <v>566</v>
+        <v>3043</v>
       </c>
       <c r="AY50">
         <v>0</v>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="AY51">
-        <v>11533</v>
+        <v>18233</v>
       </c>
       <c r="AZ51">
         <v>100</v>
@@ -10462,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="AZ52">
-        <v>7338</v>
+        <v>11309</v>
       </c>
       <c r="BA52">
         <v>0</v>
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="BA53">
-        <v>3840</v>
+        <v>7745</v>
       </c>
       <c r="BB53">
         <v>100</v>
@@ -10850,7 +10850,7 @@
         <v>20</v>
       </c>
       <c r="BB54">
-        <v>-20451</v>
+        <v>-15712</v>
       </c>
       <c r="BC54">
         <v>160</v>
@@ -11044,7 +11044,7 @@
         <v>380</v>
       </c>
       <c r="BC55">
-        <v>128624</v>
+        <v>174115</v>
       </c>
       <c r="BD55">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>20</v>
       </c>
       <c r="BD56">
-        <v>16282</v>
+        <v>25378</v>
       </c>
       <c r="BE56">
         <v>1000</v>
@@ -11432,7 +11432,7 @@
         <v>360</v>
       </c>
       <c r="BE57">
-        <v>5138</v>
+        <v>11026</v>
       </c>
       <c r="BF57">
         <v>80</v>
@@ -11626,7 +11626,7 @@
         <v>100</v>
       </c>
       <c r="BF58">
-        <v>21077</v>
+        <v>30656</v>
       </c>
       <c r="BG58">
         <v>0</v>
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="BG59">
-        <v>9927</v>
+        <v>16027</v>
       </c>
       <c r="BH59">
         <v>0</v>
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="BH60">
-        <v>-805</v>
+        <v>3131</v>
       </c>
       <c r="BI60">
         <v>60</v>
@@ -12208,7 +12208,7 @@
         <v>100</v>
       </c>
       <c r="BI61">
-        <v>24319</v>
+        <v>34479</v>
       </c>
       <c r="BJ61">
         <v>0</v>
@@ -12402,7 +12402,7 @@
         <v>60</v>
       </c>
       <c r="BJ62">
-        <v>7587</v>
+        <v>11901</v>
       </c>
       <c r="BK62">
         <v>50</v>
@@ -12596,7 +12596,7 @@
         <v>10</v>
       </c>
       <c r="BK63">
-        <v>638</v>
+        <v>4715</v>
       </c>
     </row>
   </sheetData>
